--- a/FPworld_testCase.xlsx
+++ b/FPworld_testCase.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="20480" windowHeight="13500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="220" yWindow="580" windowWidth="13780" windowHeight="15900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -42,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +53,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +184,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -531,16 +541,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO6"/>
+  <dimension ref="A1:IZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
     <col width="7" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="28.83203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="34" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
     <col width="16.1640625" customWidth="1" style="3" min="3" max="3"/>
     <col width="11" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
     <col width="50.6640625" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
@@ -558,197 +568,347 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>필수입력값</t>
         </is>
       </c>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>보험종류1</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>보험종류2</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>보험종류3</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>보험종류4</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>보험계약자</t>
         </is>
       </c>
-      <c r="K1" s="7" t="n"/>
-      <c r="L1" s="7" t="n"/>
-      <c r="M1" s="7" t="n"/>
-      <c r="N1" s="8" t="n"/>
-      <c r="O1" s="6" t="inlineStr">
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="9" t="n"/>
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>피보험자(주피)</t>
         </is>
       </c>
-      <c r="P1" s="7" t="n"/>
-      <c r="Q1" s="7" t="n"/>
-      <c r="R1" s="7" t="n"/>
-      <c r="S1" s="8" t="n"/>
-      <c r="T1" s="6" t="inlineStr">
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="9" t="n"/>
+      <c r="T1" s="7" t="inlineStr">
         <is>
           <t>배우자(종피)</t>
         </is>
       </c>
-      <c r="U1" s="7" t="n"/>
-      <c r="V1" s="7" t="n"/>
-      <c r="W1" s="7" t="n"/>
-      <c r="X1" s="8" t="n"/>
-      <c r="Y1" s="6" t="inlineStr">
+      <c r="U1" s="8" t="n"/>
+      <c r="V1" s="8" t="n"/>
+      <c r="W1" s="8" t="n"/>
+      <c r="X1" s="9" t="n"/>
+      <c r="Y1" s="7" t="inlineStr">
         <is>
           <t>자녀1</t>
         </is>
       </c>
-      <c r="Z1" s="7" t="n"/>
-      <c r="AA1" s="7" t="n"/>
-      <c r="AB1" s="7" t="n"/>
-      <c r="AC1" s="8" t="n"/>
-      <c r="AD1" s="6" t="inlineStr">
+      <c r="Z1" s="8" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="8" t="n"/>
+      <c r="AC1" s="9" t="n"/>
+      <c r="AD1" s="7" t="inlineStr">
         <is>
           <t>자녀2</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="n"/>
-      <c r="AF1" s="7" t="n"/>
-      <c r="AG1" s="7" t="n"/>
-      <c r="AH1" s="8" t="n"/>
-      <c r="AI1" s="6" t="inlineStr">
+      <c r="AE1" s="8" t="n"/>
+      <c r="AF1" s="8" t="n"/>
+      <c r="AG1" s="8" t="n"/>
+      <c r="AH1" s="9" t="n"/>
+      <c r="AI1" s="7" t="inlineStr">
         <is>
           <t>주계약</t>
         </is>
       </c>
-      <c r="AJ1" s="7" t="n"/>
-      <c r="AK1" s="7" t="n"/>
-      <c r="AL1" s="7" t="n"/>
-      <c r="AM1" s="7" t="n"/>
-      <c r="AN1" s="8" t="n"/>
-      <c r="AO1" t="inlineStr">
+      <c r="AJ1" s="8" t="n"/>
+      <c r="AK1" s="8" t="n"/>
+      <c r="AL1" s="8" t="n"/>
+      <c r="AM1" s="8" t="n"/>
+      <c r="AN1" s="9" t="n"/>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>연금설계</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>추가설계_추가납입</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>추가설계_추가납입</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>추가설계_추가납입</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>추가설계_추가납입</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>추가설계_추가납입</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>추가설계_인출</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>추가설계_인출</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>추가설계_인출</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>추가설계_인출</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>추가설계_인출</t>
         </is>
       </c>
-      <c r="CE1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>스마트전환형</t>
         </is>
       </c>
-      <c r="CI1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>연금선지급</t>
         </is>
       </c>
-      <c r="CL1" t="inlineStr">
-        <is>
-          <t>스마트전환형_추가납입</t>
-        </is>
-      </c>
-      <c r="CP1" t="inlineStr">
-        <is>
-          <t>스마트전환형_추가납입</t>
-        </is>
-      </c>
-      <c r="CT1" t="inlineStr">
-        <is>
-          <t>스마트전환형_추가납입</t>
-        </is>
-      </c>
-      <c r="CX1" t="inlineStr">
-        <is>
-          <t>스마트전환형_추가납입</t>
-        </is>
-      </c>
-      <c r="DB1" t="inlineStr">
-        <is>
-          <t>스마트전환형_추가납입</t>
-        </is>
-      </c>
-      <c r="DF1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_대상</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_연금전환설계</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>부가특약</t>
         </is>
       </c>
-      <c r="DK1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>부가특약</t>
         </is>
       </c>
     </row>
     <row r="2" ht="33" customFormat="1" customHeight="1" s="2">
-      <c r="A2" s="10" t="n"/>
+      <c r="A2" s="11" t="n"/>
       <c r="B2" s="5" t="inlineStr">
         <is>
           <t>상품명</t>
@@ -769,10 +929,10 @@
           <t>설계번호</t>
         </is>
       </c>
-      <c r="F2" s="10" t="n"/>
-      <c r="G2" s="10" t="n"/>
-      <c r="H2" s="10" t="n"/>
-      <c r="I2" s="10" t="n"/>
+      <c r="F2" s="11" t="n"/>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="11" t="n"/>
+      <c r="I2" s="11" t="n"/>
       <c r="J2" s="4" t="inlineStr">
         <is>
           <t>이름</t>
@@ -1053,286 +1213,991 @@
           <t>계약자적립금인출_시기(종료)</t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr">
+      <c r="BN2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_금액</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr">
+      <c r="BO2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_용도</t>
         </is>
       </c>
-      <c r="BP2" t="inlineStr">
+      <c r="BP2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(시작)</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BQ2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(종료)</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BR2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_금액</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BS2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_용도</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="BT2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(시작)</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
+      <c r="BU2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(종료)</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
+      <c r="BV2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_금액</t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr">
+      <c r="BW2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_용도</t>
         </is>
       </c>
-      <c r="BX2" t="inlineStr">
+      <c r="BX2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(시작)</t>
         </is>
       </c>
-      <c r="BY2" t="inlineStr">
+      <c r="BY2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(종료)</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
+      <c r="BZ2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_금액</t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
+      <c r="CA2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_용도</t>
         </is>
       </c>
-      <c r="CB2" t="inlineStr">
+      <c r="CB2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(시작)</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr">
+      <c r="CC2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_시기(종료)</t>
         </is>
       </c>
-      <c r="CD2" t="inlineStr">
+      <c r="CD2" s="1" t="inlineStr">
         <is>
           <t>계약자적립금인출_금액</t>
         </is>
       </c>
-      <c r="CE2" t="inlineStr">
+      <c r="CE2" s="1" t="inlineStr">
         <is>
           <t>스마트전환대상자</t>
         </is>
       </c>
-      <c r="CF2" t="inlineStr">
+      <c r="CF2" s="1" t="inlineStr">
         <is>
           <t>스마트전환시점</t>
         </is>
       </c>
-      <c r="CG2" t="inlineStr">
+      <c r="CG2" s="1" t="inlineStr">
         <is>
           <t>보험기간</t>
         </is>
       </c>
-      <c r="CH2" t="inlineStr">
+      <c r="CH2" s="1" t="inlineStr">
         <is>
           <t>납입기간</t>
         </is>
       </c>
-      <c r="CI2" t="inlineStr">
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CK2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CL2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CM2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CN2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CO2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CP2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CQ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CR2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CS2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CT2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CU2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CV2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CW2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CX2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CY2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CZ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="DA2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="DB2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="DC2" s="1" t="inlineStr">
         <is>
           <t>선지급나이</t>
         </is>
       </c>
-      <c r="CJ2" t="inlineStr">
+      <c r="DD2" s="1" t="inlineStr">
         <is>
           <t>선지급비율</t>
         </is>
       </c>
-      <c r="CK2" t="inlineStr">
+      <c r="DE2" s="1" t="inlineStr">
         <is>
           <t>선지급기간</t>
         </is>
       </c>
-      <c r="CL2" t="inlineStr">
+      <c r="DF2" s="1" t="inlineStr">
+        <is>
+          <t>보장전환대상자</t>
+        </is>
+      </c>
+      <c r="DG2" s="1" t="inlineStr">
+        <is>
+          <t>보장전환시점</t>
+        </is>
+      </c>
+      <c r="DH2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="DI2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="DJ2" s="1" t="inlineStr">
+        <is>
+          <t>연금개시나이</t>
+        </is>
+      </c>
+      <c r="DK2" s="1" t="inlineStr">
+        <is>
+          <t>예시나이간격</t>
+        </is>
+      </c>
+      <c r="DL2" s="1" t="inlineStr">
         <is>
           <t>추가납입시점</t>
         </is>
       </c>
-      <c r="CM2" t="inlineStr">
+      <c r="DM2" s="1" t="inlineStr">
         <is>
           <t>추가납입기간</t>
         </is>
       </c>
-      <c r="CN2" t="inlineStr">
+      <c r="DN2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액_주기</t>
         </is>
       </c>
-      <c r="CO2" t="inlineStr">
+      <c r="DO2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액</t>
         </is>
       </c>
-      <c r="CP2" t="inlineStr">
+      <c r="DP2" s="1" t="inlineStr">
         <is>
           <t>추가납입시점</t>
         </is>
       </c>
-      <c r="CQ2" t="inlineStr">
+      <c r="DQ2" s="1" t="inlineStr">
         <is>
           <t>추가납입기간</t>
         </is>
       </c>
-      <c r="CR2" t="inlineStr">
+      <c r="DR2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액_주기</t>
         </is>
       </c>
-      <c r="CS2" t="inlineStr">
+      <c r="DS2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액</t>
         </is>
       </c>
-      <c r="CT2" t="inlineStr">
+      <c r="DT2" s="1" t="inlineStr">
         <is>
           <t>추가납입시점</t>
         </is>
       </c>
-      <c r="CU2" t="inlineStr">
+      <c r="DU2" s="1" t="inlineStr">
         <is>
           <t>추가납입기간</t>
         </is>
       </c>
-      <c r="CV2" t="inlineStr">
+      <c r="DV2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액_주기</t>
         </is>
       </c>
-      <c r="CW2" t="inlineStr">
+      <c r="DW2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액</t>
         </is>
       </c>
-      <c r="CX2" t="inlineStr">
+      <c r="DX2" s="1" t="inlineStr">
         <is>
           <t>추가납입시점</t>
         </is>
       </c>
-      <c r="CY2" t="inlineStr">
+      <c r="DY2" s="1" t="inlineStr">
         <is>
           <t>추가납입기간</t>
         </is>
       </c>
-      <c r="CZ2" t="inlineStr">
+      <c r="DZ2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액_주기</t>
         </is>
       </c>
-      <c r="DA2" t="inlineStr">
+      <c r="EA2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액</t>
         </is>
       </c>
-      <c r="DB2" t="inlineStr">
+      <c r="EB2" s="1" t="inlineStr">
         <is>
           <t>추가납입시점</t>
         </is>
       </c>
-      <c r="DC2" t="inlineStr">
+      <c r="EC2" s="1" t="inlineStr">
         <is>
           <t>추가납입기간</t>
         </is>
       </c>
-      <c r="DD2" t="inlineStr">
+      <c r="ED2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액_주기</t>
         </is>
       </c>
-      <c r="DE2" t="inlineStr">
+      <c r="EE2" s="1" t="inlineStr">
         <is>
           <t>추가납입금액</t>
         </is>
       </c>
-      <c r="DF2" t="inlineStr">
+      <c r="EF2" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="DG2" t="inlineStr">
+      <c r="EG2" s="1" t="inlineStr">
         <is>
           <t>특약명칭</t>
         </is>
       </c>
-      <c r="DH2" t="inlineStr">
+      <c r="EH2" s="1" t="inlineStr">
         <is>
           <t>보험기간</t>
         </is>
       </c>
-      <c r="DI2" t="inlineStr">
+      <c r="EI2" s="1" t="inlineStr">
         <is>
           <t>납입기간</t>
         </is>
       </c>
-      <c r="DJ2" t="inlineStr">
+      <c r="EJ2" s="1" t="inlineStr">
         <is>
           <t>가입금액</t>
         </is>
       </c>
-      <c r="DK2" t="inlineStr">
+      <c r="EK2" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="DL2" t="inlineStr">
+      <c r="EL2" s="1" t="inlineStr">
         <is>
           <t>특약명칭</t>
         </is>
       </c>
-      <c r="DM2" t="inlineStr">
+      <c r="EM2" s="1" t="inlineStr">
         <is>
           <t>보험기간</t>
         </is>
       </c>
-      <c r="DN2" t="inlineStr">
+      <c r="EN2" s="1" t="inlineStr">
         <is>
           <t>납입기간</t>
         </is>
       </c>
-      <c r="DO2" t="inlineStr">
+      <c r="EO2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="EP2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="EQ2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="ER2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="ES2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="ET2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="EU2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="EV2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="EW2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="EX2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="EY2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="EZ2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FA2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="FB2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="FC2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="FD2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="FE2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FF2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="FG2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="FH2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="FI2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="FJ2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FK2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="FL2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="FM2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="FN2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="FO2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FP2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="FQ2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="FR2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="FS2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="FT2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FU2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="FV2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="FW2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="FX2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="FY2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FZ2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="GA2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="GB2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="GC2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="GD2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="GE2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="GF2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="GG2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="GH2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="GI2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="GJ2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="GK2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="GL2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="GM2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="GN2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="GO2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="GP2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="GQ2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="GR2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="GS2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="GT2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="GU2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="GV2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="GW2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="GX2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="GY2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="GZ2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="HA2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="HB2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="HC2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="HD2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="HE2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="HF2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="HG2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="HH2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="HI2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="HJ2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="HK2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="HL2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="HM2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="HN2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="HO2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="HP2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="HQ2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="HR2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="HS2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="HT2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="HU2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="HV2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="HW2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="HX2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="HY2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="HZ2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="IA2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="IB2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="IC2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="ID2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="IE2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="IF2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="IG2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="IH2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="II2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="IJ2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="IK2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="IL2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="IM2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="IN2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="IO2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="IP2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="IQ2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="IR2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="IS2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="IT2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="IU2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="IV2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="IW2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="IX2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="IY2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="IZ2" s="1" t="inlineStr">
         <is>
           <t>가입금액</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>case1</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>두배만족 WI보험</t>
+          <t>암명품 종신보험(보증형)</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
@@ -1344,16 +2209,11 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>281131484</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>암플러스추가보장특약 갱신형</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>WI보험료환급특약 환급형</t>
+        <v>281773934</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3대질병보험료납입지원특약[100%납입지원형]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1361,12 +2221,12 @@
           <t>김정한</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>430201</t>
         </is>
@@ -1379,17 +2239,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>배은영</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>510201</t>
+          <t>430201</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1400,17 +2260,17 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>김정한</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
+          <t>배은영</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>430201</t>
+          <t>510201</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1424,7 +2284,7 @@
           <t>김예린</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1440,7 +2300,7 @@
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AI3" s="1" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1457,102 +2317,882 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>25년납</t>
-        </is>
-      </c>
-      <c r="AM3" s="1" t="inlineStr">
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>월납</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="DF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>57세</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>10년</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>매년초</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>매년초</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>중도인출</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>중도인출</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>중도인출</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>김예린</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>일시납</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>매년초</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr">
         <is>
           <t>주피</t>
         </is>
       </c>
-      <c r="DG3" t="inlineStr">
-        <is>
-          <t>암플러스추가보장특약Ⅱ(갱신형) (무)</t>
-        </is>
-      </c>
-      <c r="DH3" t="inlineStr">
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>암보장특약 [표준형](무)</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>소액암보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>소액질병보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>초기 이외의 갑상선암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FA3" t="inlineStr">
+        <is>
+          <t>위암 및 식도암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FC3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>호흡기암(폐암 및 후두암 포함)보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>4,600</t>
+        </is>
+      </c>
+      <c r="FJ3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FK3" t="inlineStr">
+        <is>
+          <t>간암 및 췌장암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FL3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FM3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FN3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FO3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FP3" t="inlineStr">
+        <is>
+          <t>뼈, 뇌 및 백혈병 관련암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FQ3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FR3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FS3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FT3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FU3" t="inlineStr">
+        <is>
+          <t>신장암 및 방광암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FV3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FW3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FX3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FY3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FZ3" t="inlineStr">
+        <is>
+          <t>남성생식기암(전립선암 포함)보장특약(무)</t>
+        </is>
+      </c>
+      <c r="GA3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="GB3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="GC3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GD3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GE3" t="inlineStr">
+        <is>
+          <t>직·결장암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="GF3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="GG3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="GH3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GI3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GJ3" t="inlineStr">
+        <is>
+          <t>암보장특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GK3" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="GL3" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="GM3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GN3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GO3" t="inlineStr">
+        <is>
+          <t>소액암보장특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GP3" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="GQ3" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="GR3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GS3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GT3" t="inlineStr">
+        <is>
+          <t>소액질병보장특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GU3" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="GV3" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="GW3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GX3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GY3" t="inlineStr">
+        <is>
+          <t>질병후유장해(3~100%)특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GZ3" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="HA3" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="HB3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HC3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HD3" t="inlineStr">
+        <is>
+          <t>암직접치료통원특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HE3" t="inlineStr">
+        <is>
+          <t>20년만기</t>
+        </is>
+      </c>
+      <c r="HF3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="HG3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HH3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HI3" t="inlineStr">
+        <is>
+          <t>첫날부터 암직접치료입원특약(요양병원제외)(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HJ3" t="inlineStr">
+        <is>
+          <t>20년만기</t>
+        </is>
+      </c>
+      <c r="HK3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="HL3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HM3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HN3" t="inlineStr">
+        <is>
+          <t>첫날부터 요양병원암입원특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HO3" t="inlineStr">
         <is>
           <t>3년만기</t>
         </is>
       </c>
-      <c r="DI3" t="inlineStr">
+      <c r="HP3" t="inlineStr">
         <is>
           <t>3년납</t>
         </is>
       </c>
-      <c r="DJ3" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="DK3" t="inlineStr">
+      <c r="HQ3" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="HR3" t="inlineStr">
         <is>
           <t>주피</t>
         </is>
       </c>
-      <c r="DL3" t="inlineStr">
-        <is>
-          <t>암플러스추가보장특약(갱신형) (무)</t>
-        </is>
-      </c>
-      <c r="DM3" t="inlineStr">
-        <is>
-          <t>3년만기</t>
-        </is>
-      </c>
-      <c r="DN3" t="inlineStr">
-        <is>
-          <t>3년납</t>
-        </is>
-      </c>
-      <c r="DO3" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="P4" s="1" t="n"/>
-      <c r="AI4" s="1" t="n"/>
-      <c r="AM4" s="1" t="n"/>
-      <c r="AN4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="AI5" s="1" t="n"/>
-      <c r="AM5" s="1" t="n"/>
-      <c r="AN5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="P6" s="1" t="n"/>
-      <c r="AI6" s="1" t="n"/>
+      <c r="HS3" t="inlineStr">
+        <is>
+          <t>암수술보장특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HT3" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="HU3" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="HV3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HW3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HX3" t="inlineStr">
+        <is>
+          <t>항암약물치료특약Ⅱ [해지환급금 미지급형(납중 0%, 납후 50%)](무)</t>
+        </is>
+      </c>
+      <c r="HY3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="HZ3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="IA3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="IB3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IC3" t="inlineStr">
+        <is>
+          <t>항암약물치료특약 [해지환급금 미지급형(납중 0%, 납후 50%)](무)</t>
+        </is>
+      </c>
+      <c r="ID3" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="IE3" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="IF3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="IG3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IH3" t="inlineStr">
+        <is>
+          <t>표적항암약물허가치료특약(갱신형) [5년만기](무)</t>
+        </is>
+      </c>
+      <c r="II3" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IJ3" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IK3" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="IL3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IM3" t="inlineStr">
+        <is>
+          <t>항암양성자방사선치료특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="IN3" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IO3" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IP3" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="IQ3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IR3" t="inlineStr">
+        <is>
+          <t>항암세기조절방사선치료특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="IS3" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IT3" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IU3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="IV3" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IW3" t="inlineStr">
+        <is>
+          <t>항암정위적방사선치료특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="IX3" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IY3" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IZ3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1580,21 +3220,3963 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F7"/>
+  <dimension ref="A1:IZ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <cols>
+    <col width="34" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="24.33203125" bestFit="1" customWidth="1" style="3" min="35" max="35"/>
+    <col width="13" bestFit="1" customWidth="1" style="3" min="36" max="36"/>
+    <col width="15.5" bestFit="1" customWidth="1" style="3" min="37" max="37"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="3" min="38" max="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>필수입력값</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>보험종류1</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>보험종류2</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>보험종류3</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>보험종류4</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>보험계약자</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="9" t="n"/>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>피보험자(주피)</t>
+        </is>
+      </c>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="9" t="n"/>
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>배우자(종피)</t>
+        </is>
+      </c>
+      <c r="U1" s="8" t="n"/>
+      <c r="V1" s="8" t="n"/>
+      <c r="W1" s="8" t="n"/>
+      <c r="X1" s="9" t="n"/>
+      <c r="Y1" s="7" t="inlineStr">
+        <is>
+          <t>자녀1</t>
+        </is>
+      </c>
+      <c r="Z1" s="8" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="8" t="n"/>
+      <c r="AC1" s="9" t="n"/>
+      <c r="AD1" s="7" t="inlineStr">
+        <is>
+          <t>자녀2</t>
+        </is>
+      </c>
+      <c r="AE1" s="8" t="n"/>
+      <c r="AF1" s="8" t="n"/>
+      <c r="AG1" s="8" t="n"/>
+      <c r="AH1" s="9" t="n"/>
+      <c r="AI1" s="7" t="inlineStr">
+        <is>
+          <t>주계약</t>
+        </is>
+      </c>
+      <c r="AJ1" s="8" t="n"/>
+      <c r="AK1" s="8" t="n"/>
+      <c r="AL1" s="8" t="n"/>
+      <c r="AM1" s="8" t="n"/>
+      <c r="AN1" s="9" t="n"/>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>연금설계</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_추가납입</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_추가납입</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_추가납입</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_추가납입</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_추가납입</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_인출</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_인출</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_인출</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_인출</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>추가설계_인출</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>연금선지급</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_대상</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_연금전환설계</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>보장전환형_추가납입</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>부가특약</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="33" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="11" t="n"/>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>상품명</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>FP사번</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>고객명</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>설계번호</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="n"/>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="11" t="n"/>
+      <c r="I2" s="11" t="n"/>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>건강체여부</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>직종코드</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>외국인</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t>체류</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>건강체여부</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>직종코드</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr">
+        <is>
+          <t>외국인</t>
+        </is>
+      </c>
+      <c r="S2" s="4" t="inlineStr">
+        <is>
+          <t>체류</t>
+        </is>
+      </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr">
+        <is>
+          <t>건강체여부</t>
+        </is>
+      </c>
+      <c r="V2" s="4" t="inlineStr">
+        <is>
+          <t>직종코드</t>
+        </is>
+      </c>
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>외국인</t>
+        </is>
+      </c>
+      <c r="X2" s="4" t="inlineStr">
+        <is>
+          <t>체류</t>
+        </is>
+      </c>
+      <c r="Y2" s="4" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t>건강체여부</t>
+        </is>
+      </c>
+      <c r="AA2" s="4" t="inlineStr">
+        <is>
+          <t>직종코드</t>
+        </is>
+      </c>
+      <c r="AB2" s="4" t="inlineStr">
+        <is>
+          <t>외국인</t>
+        </is>
+      </c>
+      <c r="AC2" s="4" t="inlineStr">
+        <is>
+          <t>체류</t>
+        </is>
+      </c>
+      <c r="AD2" s="4" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="AE2" s="4" t="inlineStr">
+        <is>
+          <t>건강체여부</t>
+        </is>
+      </c>
+      <c r="AF2" s="4" t="inlineStr">
+        <is>
+          <t>직종코드</t>
+        </is>
+      </c>
+      <c r="AG2" s="4" t="inlineStr">
+        <is>
+          <t>외국인</t>
+        </is>
+      </c>
+      <c r="AH2" s="4" t="inlineStr">
+        <is>
+          <t>체류</t>
+        </is>
+      </c>
+      <c r="AI2" s="4" t="inlineStr">
+        <is>
+          <t>합계보험료</t>
+        </is>
+      </c>
+      <c r="AJ2" s="4" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="AK2" s="4" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="AL2" s="4" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="AM2" s="4" t="inlineStr">
+        <is>
+          <t>납입주기</t>
+        </is>
+      </c>
+      <c r="AN2" s="4" t="inlineStr">
+        <is>
+          <t>증액보험기간</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>개시나이</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>예시나이간격</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_용도</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(시작)</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(종료)</t>
+        </is>
+      </c>
+      <c r="BN2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_금액</t>
+        </is>
+      </c>
+      <c r="BO2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_용도</t>
+        </is>
+      </c>
+      <c r="BP2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(시작)</t>
+        </is>
+      </c>
+      <c r="BQ2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(종료)</t>
+        </is>
+      </c>
+      <c r="BR2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_금액</t>
+        </is>
+      </c>
+      <c r="BS2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_용도</t>
+        </is>
+      </c>
+      <c r="BT2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(시작)</t>
+        </is>
+      </c>
+      <c r="BU2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(종료)</t>
+        </is>
+      </c>
+      <c r="BV2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_금액</t>
+        </is>
+      </c>
+      <c r="BW2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_용도</t>
+        </is>
+      </c>
+      <c r="BX2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(시작)</t>
+        </is>
+      </c>
+      <c r="BY2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(종료)</t>
+        </is>
+      </c>
+      <c r="BZ2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_금액</t>
+        </is>
+      </c>
+      <c r="CA2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_용도</t>
+        </is>
+      </c>
+      <c r="CB2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(시작)</t>
+        </is>
+      </c>
+      <c r="CC2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_시기(종료)</t>
+        </is>
+      </c>
+      <c r="CD2" s="1" t="inlineStr">
+        <is>
+          <t>계약자적립금인출_금액</t>
+        </is>
+      </c>
+      <c r="CE2" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환대상자</t>
+        </is>
+      </c>
+      <c r="CF2" s="1" t="inlineStr">
+        <is>
+          <t>스마트전환시점</t>
+        </is>
+      </c>
+      <c r="CG2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CK2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CL2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CM2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CN2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CO2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CP2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CQ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CR2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CS2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CT2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CU2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CV2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="CW2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="CX2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="CY2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="CZ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="DA2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="DB2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="DC2" s="1" t="inlineStr">
+        <is>
+          <t>선지급나이</t>
+        </is>
+      </c>
+      <c r="DD2" s="1" t="inlineStr">
+        <is>
+          <t>선지급비율</t>
+        </is>
+      </c>
+      <c r="DE2" s="1" t="inlineStr">
+        <is>
+          <t>선지급기간</t>
+        </is>
+      </c>
+      <c r="DF2" s="1" t="inlineStr">
+        <is>
+          <t>보장전환대상자</t>
+        </is>
+      </c>
+      <c r="DG2" s="1" t="inlineStr">
+        <is>
+          <t>보장전환시점</t>
+        </is>
+      </c>
+      <c r="DH2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="DI2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="DJ2" s="1" t="inlineStr">
+        <is>
+          <t>연금개시나이</t>
+        </is>
+      </c>
+      <c r="DK2" s="1" t="inlineStr">
+        <is>
+          <t>예시나이간격</t>
+        </is>
+      </c>
+      <c r="DL2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="DM2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="DN2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="DO2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="DP2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="DQ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="DR2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="DS2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="DT2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="DU2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="DV2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="DW2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="DX2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="DY2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="DZ2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="EA2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="EB2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입시점</t>
+        </is>
+      </c>
+      <c r="EC2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입기간</t>
+        </is>
+      </c>
+      <c r="ED2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액_주기</t>
+        </is>
+      </c>
+      <c r="EE2" s="1" t="inlineStr">
+        <is>
+          <t>추가납입금액</t>
+        </is>
+      </c>
+      <c r="EF2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="EG2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="EH2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="EI2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="EJ2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="EK2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="EL2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="EM2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="EN2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="EO2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="EP2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="EQ2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="ER2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="ES2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="ET2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="EU2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="EV2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="EW2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="EX2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="EY2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="EZ2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FA2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="FB2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="FC2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="FD2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+      <c r="FE2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="FF2" s="1" t="inlineStr">
+        <is>
+          <t>특약명칭</t>
+        </is>
+      </c>
+      <c r="FG2" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="FH2" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="FI2" s="1" t="inlineStr">
+        <is>
+          <t>가입금액</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>case1</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>암명품 종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2130038</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>281773934</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>3대질병보험료납입지원특약[100%납입지원형]</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>430201</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>430201</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>배은영</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t>510201</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t>김예린</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA3" s="1" t="inlineStr">
+        <is>
+          <t>510103</t>
+        </is>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>57세</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>10년</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>매년초</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW3" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="AX3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AZ3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA3" s="1" t="inlineStr">
+        <is>
+          <t>매년초</t>
+        </is>
+      </c>
+      <c r="BB3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
+        <is>
+          <t>중도인출</t>
+        </is>
+      </c>
+      <c r="BL3" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
+        <is>
+          <t>중도인출</t>
+        </is>
+      </c>
+      <c r="BP3" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BR3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BS3" s="1" t="inlineStr">
+        <is>
+          <t>중도인출</t>
+        </is>
+      </c>
+      <c r="BT3" s="1" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="BU3" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BV3" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>김예린</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>일시납</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CJ3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CK3" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="CL3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CM3" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="CN3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CO3" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="CP3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ3" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CR3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS3" s="1" t="inlineStr">
+        <is>
+          <t>매년초</t>
+        </is>
+      </c>
+      <c r="CT3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DC3" s="1" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="DD3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE3" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EF3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EG3" s="1" t="inlineStr">
+        <is>
+          <t>암보장특약 [표준형](무)</t>
+        </is>
+      </c>
+      <c r="EH3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EI3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EJ3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EK3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EL3" s="1" t="inlineStr">
+        <is>
+          <t>소액암보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="EM3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EN3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EO3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EP3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EQ3" s="1" t="inlineStr">
+        <is>
+          <t>소액질병보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="ER3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="ES3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="ET3" s="1" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="EU3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EV3" s="1" t="inlineStr">
+        <is>
+          <t>초기 이외의 갑상선암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="EW3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EX3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EY3" s="1" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="EZ3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FA3" s="1" t="inlineStr">
+        <is>
+          <t>위암 및 식도암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FB3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FC3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FD3" s="1" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="FE3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FF3" s="1" t="inlineStr">
+        <is>
+          <t>호흡기암(폐암 및 후두암 포함)보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FG3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FH3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FI3" s="1" t="inlineStr">
+        <is>
+          <t>4,600</t>
+        </is>
+      </c>
+      <c r="FJ3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FK3" s="1" t="inlineStr">
+        <is>
+          <t>간암 및 췌장암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FL3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FM3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FN3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FO3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FP3" s="1" t="inlineStr">
+        <is>
+          <t>뼈, 뇌 및 백혈병 관련암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FQ3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FR3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FS3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FT3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FU3" s="1" t="inlineStr">
+        <is>
+          <t>신장암 및 방광암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FV3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FW3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FX3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FY3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FZ3" s="1" t="inlineStr">
+        <is>
+          <t>남성생식기암(전립선암 포함)보장특약(무)</t>
+        </is>
+      </c>
+      <c r="GA3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="GB3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="GC3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GD3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GE3" s="1" t="inlineStr">
+        <is>
+          <t>직·결장암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="GF3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="GG3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="GH3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GI3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GJ3" s="1" t="inlineStr">
+        <is>
+          <t>암보장특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GK3" s="1" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="GL3" s="1" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="GM3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GN3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GO3" s="1" t="inlineStr">
+        <is>
+          <t>소액암보장특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GP3" s="1" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="GQ3" s="1" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="GR3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GS3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GT3" s="1" t="inlineStr">
+        <is>
+          <t>소액질병보장특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GU3" s="1" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="GV3" s="1" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="GW3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GX3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="GY3" s="1" t="inlineStr">
+        <is>
+          <t>질병후유장해(3~100%)특약(갱신형)[10년만기](무)</t>
+        </is>
+      </c>
+      <c r="GZ3" s="1" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="HA3" s="1" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="HB3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HC3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HD3" s="1" t="inlineStr">
+        <is>
+          <t>암직접치료통원특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HE3" s="1" t="inlineStr">
+        <is>
+          <t>20년만기</t>
+        </is>
+      </c>
+      <c r="HF3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="HG3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HH3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HI3" s="1" t="inlineStr">
+        <is>
+          <t>첫날부터 암직접치료입원특약(요양병원제외)(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HJ3" s="1" t="inlineStr">
+        <is>
+          <t>20년만기</t>
+        </is>
+      </c>
+      <c r="HK3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="HL3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HM3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HN3" s="1" t="inlineStr">
+        <is>
+          <t>첫날부터 요양병원암입원특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HO3" s="1" t="inlineStr">
+        <is>
+          <t>3년만기</t>
+        </is>
+      </c>
+      <c r="HP3" s="1" t="inlineStr">
+        <is>
+          <t>3년납</t>
+        </is>
+      </c>
+      <c r="HQ3" s="1" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="HR3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HS3" s="1" t="inlineStr">
+        <is>
+          <t>암수술보장특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="HT3" s="1" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="HU3" s="1" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="HV3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="HW3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="HX3" s="1" t="inlineStr">
+        <is>
+          <t>항암약물치료특약Ⅱ [해지환급금 미지급형(납중 0%, 납후 50%)](무)</t>
+        </is>
+      </c>
+      <c r="HY3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="HZ3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="IA3" s="1" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="IB3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IC3" s="1" t="inlineStr">
+        <is>
+          <t>항암약물치료특약 [해지환급금 미지급형(납중 0%, 납후 50%)](무)</t>
+        </is>
+      </c>
+      <c r="ID3" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="IE3" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="IF3" s="1" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="IG3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IH3" s="1" t="inlineStr">
+        <is>
+          <t>표적항암약물허가치료특약(갱신형) [5년만기](무)</t>
+        </is>
+      </c>
+      <c r="II3" s="1" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IJ3" s="1" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IK3" s="1" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="IL3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IM3" s="1" t="inlineStr">
+        <is>
+          <t>항암양성자방사선치료특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="IN3" s="1" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IO3" s="1" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IP3" s="1" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="IQ3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IR3" s="1" t="inlineStr">
+        <is>
+          <t>항암세기조절방사선치료특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="IS3" s="1" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IT3" s="1" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IU3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="IV3" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="IW3" s="1" t="inlineStr">
+        <is>
+          <t>항암정위적방사선치료특약(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="IX3" s="1" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="IY3" s="1" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="IZ3" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>case2</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 암플러스 종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2190098</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>박주암</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>281773858</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 페이백플러스보장특약 환급플러스형(2종,암/뇌출혈/급성심근경색증보장형)</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>박주암</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>430201</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>이윤주</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>510201</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>52세</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>10년</t>
+        </is>
+      </c>
+      <c r="AQ4" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR4" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AS4" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DC4" s="1" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="DD4" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="DE4" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EF4" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EG4" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 암보장특약[표준형](무)</t>
+        </is>
+      </c>
+      <c r="EH4" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EI4" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EJ4" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EK4" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EL4" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 소액암보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="EM4" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EN4" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EO4" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EP4" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EQ4" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 소액질병보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="ER4" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="ES4" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="ET4" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" customFormat="1" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>case1</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>두배만족 WI보험</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2130038</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>281364111</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>암플러스추가보장특약 갱신형</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>WI보험료환급특약 환급형</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>430201</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>배은영</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>510201</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>430201</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>김예린</t>
+        </is>
+      </c>
+      <c r="Z5" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA5" s="1" t="inlineStr">
+        <is>
+          <t>510103</t>
+        </is>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>25년납</t>
+        </is>
+      </c>
+      <c r="AM5" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AO5" s="1" t="inlineStr">
+        <is>
+          <t>67세</t>
+        </is>
+      </c>
+      <c r="AP5" s="1" t="inlineStr">
+        <is>
+          <t>10년</t>
+        </is>
+      </c>
+      <c r="EF5" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EG5" s="1" t="inlineStr">
+        <is>
+          <t>암플러스추가보장특약Ⅱ(갱신형) (무)</t>
+        </is>
+      </c>
+      <c r="EH5" s="1" t="inlineStr">
+        <is>
+          <t>3년만기</t>
+        </is>
+      </c>
+      <c r="EI5" s="1" t="inlineStr">
+        <is>
+          <t>3년납</t>
+        </is>
+      </c>
+      <c r="EJ5" s="1" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="EK5" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EL5" s="1" t="inlineStr">
+        <is>
+          <t>암플러스추가보장특약(갱신형) (무)</t>
+        </is>
+      </c>
+      <c r="EM5" s="1" t="inlineStr">
+        <is>
+          <t>3년만기</t>
+        </is>
+      </c>
+      <c r="EN5" s="1" t="inlineStr">
+        <is>
+          <t>3년납</t>
+        </is>
+      </c>
+      <c r="EO5" s="1" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="EP5" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EQ5" s="1" t="inlineStr">
+        <is>
+          <t>마음건강보장특약(갱신형) (무)</t>
+        </is>
+      </c>
+      <c r="ER5" s="1" t="inlineStr">
+        <is>
+          <t>3년만기</t>
+        </is>
+      </c>
+      <c r="ES5" s="1" t="inlineStr">
+        <is>
+          <t>3년납</t>
+        </is>
+      </c>
+      <c r="ET5" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EU5" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EV5" s="1" t="inlineStr">
+        <is>
+          <t>질병후유장해(3~100%)특약(갱신형) [10년만기](무)</t>
+        </is>
+      </c>
+      <c r="EW5" s="1" t="inlineStr">
+        <is>
+          <t>10년만기</t>
+        </is>
+      </c>
+      <c r="EX5" s="1" t="inlineStr">
+        <is>
+          <t>10년납</t>
+        </is>
+      </c>
+      <c r="EY5" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EZ5" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FA5" s="1" t="inlineStr">
+        <is>
+          <t>특정 류마티스관절염 및 파킨슨병 진단특약 [파킨슨병 진단자금] (무)</t>
+        </is>
+      </c>
+      <c r="FB5" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FD5" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FE5" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FF5" s="1" t="inlineStr">
+        <is>
+          <t>특정 류마티스관절염 및 파킨슨병 진단특약 [특정 류마티스 관절염 진단자금](무)</t>
+        </is>
+      </c>
+      <c r="FG5" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FI5" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" customFormat="1" s="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>case2</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>동행플러스 종신보험</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>281392158</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>선택안함</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="inlineStr">
+        <is>
+          <t>최순정</t>
+        </is>
+      </c>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V6" s="1" t="inlineStr">
+        <is>
+          <t>510201</t>
+        </is>
+      </c>
+      <c r="W6" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI6" s="1" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="AJ6" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL6" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="AM6" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AN6" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="AO6" s="1" t="inlineStr">
+        <is>
+          <t>55세</t>
+        </is>
+      </c>
+      <c r="AP6" s="1" t="inlineStr">
+        <is>
+          <t>5년</t>
+        </is>
+      </c>
+      <c r="CE6" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="CF6" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="CG6" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="CH6" s="1" t="inlineStr">
+        <is>
+          <t>일시납</t>
+        </is>
+      </c>
+      <c r="CI6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CJ6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="CK6" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="CL6" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="DC6" s="1" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="DD6" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="DE6" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customFormat="1" s="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>case3</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 동행플러스 종신보험</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>281433427</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 페이백플러스보장특약 환급형(1종, 암보장형)</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI7" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ7" s="1" t="inlineStr">
+        <is>
+          <t>25000000</t>
+        </is>
+      </c>
+      <c r="AK7" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL7" s="1" t="inlineStr">
+        <is>
+          <t>8년납</t>
+        </is>
+      </c>
+      <c r="AM7" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AN7" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="AO7" s="1" t="inlineStr">
+        <is>
+          <t>47세</t>
+        </is>
+      </c>
+      <c r="AP7" s="1" t="inlineStr">
+        <is>
+          <t>10년</t>
+        </is>
+      </c>
+      <c r="DC7" s="1" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="DD7" s="1" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="DE7" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" customFormat="1" s="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>case4</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>암명품 종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>281337974</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>선택안함</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="inlineStr">
+        <is>
+          <t>최순정</t>
+        </is>
+      </c>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V8" s="1" t="inlineStr">
+        <is>
+          <t>510201</t>
+        </is>
+      </c>
+      <c r="W8" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI8" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ8" s="1" t="inlineStr">
+        <is>
+          <t>90000000</t>
+        </is>
+      </c>
+      <c r="AK8" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL8" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="AM8" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AO8" s="1" t="inlineStr">
+        <is>
+          <t>60세</t>
+        </is>
+      </c>
+      <c r="AP8" s="1" t="inlineStr">
+        <is>
+          <t>5년</t>
+        </is>
+      </c>
+      <c r="AQ8" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AR8" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AS8" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="AT8" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AU8" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AV8" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AW8" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="AX8" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="CE8" s="1" t="inlineStr">
+        <is>
+          <t>최순정</t>
+        </is>
+      </c>
+      <c r="CG8" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="CH8" s="1" t="inlineStr">
+        <is>
+          <t>일시납</t>
+        </is>
+      </c>
+      <c r="EF8" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EG8" s="1" t="inlineStr">
+        <is>
+          <t>암보장특약 [표준형](무)</t>
+        </is>
+      </c>
+      <c r="EH8" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EI8" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EJ8" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EK8" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EL8" s="1" t="inlineStr">
+        <is>
+          <t>소액암보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="EM8" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EN8" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EO8" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EP8" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EQ8" s="1" t="inlineStr">
+        <is>
+          <t>소액질병보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="ER8" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="ES8" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="ET8" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EU8" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EV8" s="1" t="inlineStr">
+        <is>
+          <t>초기 이외의 갑상선암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="EW8" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EX8" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EY8" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EZ8" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="FA8" s="1" t="inlineStr">
+        <is>
+          <t>위암 및 식도암보장특약(무)</t>
+        </is>
+      </c>
+      <c r="FB8" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="FC8" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="FD8" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" customFormat="1" s="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>case5</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 암플러스 종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>281423613</v>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 페이백플러스보장특약 환급플러스형(2종,암/뇌출혈/급성심근경색증보장형)</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI9" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ9" s="1" t="inlineStr">
+        <is>
+          <t>3700000</t>
+        </is>
+      </c>
+      <c r="AK9" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL9" s="1" t="inlineStr">
+        <is>
+          <t>12년납</t>
+        </is>
+      </c>
+      <c r="AM9" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AO9" s="1" t="inlineStr">
+        <is>
+          <t>48세</t>
+        </is>
+      </c>
+      <c r="AP9" s="1" t="inlineStr">
+        <is>
+          <t>5년</t>
+        </is>
+      </c>
+      <c r="DC9" s="1" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DD9" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DE9" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="EF9" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EG9" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 암보장특약[표준형](무)</t>
+        </is>
+      </c>
+      <c r="EH9" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EI9" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EJ9" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EK9" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EL9" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 소액암보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="EM9" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EN9" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="EO9" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EP9" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EQ9" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 소액질병보장특약(암보장특약 표준형 부가시 고정부가용)(무)</t>
+        </is>
+      </c>
+      <c r="ER9" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="ES9" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="ET9" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" customFormat="1" s="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>case6</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>The스마트한 통합종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>281430382</v>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>1종(기본형)</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>3대질병보험료납입지원특약[50%납입지원형]</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>최순정</t>
+        </is>
+      </c>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V10" s="1" t="inlineStr">
+        <is>
+          <t>510201</t>
+        </is>
+      </c>
+      <c r="W10" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI10" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ10" s="1" t="inlineStr">
+        <is>
+          <t>60000000</t>
+        </is>
+      </c>
+      <c r="AK10" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="AL10" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="AM10" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="AO10" s="1" t="inlineStr">
+        <is>
+          <t>60세</t>
+        </is>
+      </c>
+      <c r="AP10" s="1" t="inlineStr">
+        <is>
+          <t>5년</t>
+        </is>
+      </c>
+      <c r="AQ10" s="1" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AR10" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS10" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="AT10" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BK10" s="1" t="inlineStr">
+        <is>
+          <t>대출상환</t>
+        </is>
+      </c>
+      <c r="BL10" s="1" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BM10" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BN10" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DF10" s="1" t="inlineStr">
+        <is>
+          <t>최순정</t>
+        </is>
+      </c>
+      <c r="DG10" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="DH10" s="1" t="inlineStr">
+        <is>
+          <t>종신</t>
+        </is>
+      </c>
+      <c r="DI10" s="1" t="inlineStr">
+        <is>
+          <t>일시납</t>
+        </is>
+      </c>
+      <c r="DJ10" s="1" t="inlineStr">
+        <is>
+          <t>65세</t>
+        </is>
+      </c>
+      <c r="DK10" s="1" t="inlineStr">
+        <is>
+          <t>5년</t>
+        </is>
+      </c>
+      <c r="DL10" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DM10" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DN10" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="DO10" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" customFormat="1" s="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>case7</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>내게맞는 연금보험</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>281440931</v>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>적립형</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>종신연금형(개인형)</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>보험료납입면제특약III</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI11" s="1" t="inlineStr">
+        <is>
+          <t>보증기간부(기대여명보증)</t>
+        </is>
+      </c>
+      <c r="AJ11" s="1" t="inlineStr">
+        <is>
+          <t>연금집중기간</t>
+        </is>
+      </c>
+      <c r="AK11" s="1" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="AL11" s="1" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
+      <c r="AM11" s="1" t="inlineStr">
+        <is>
+          <t>보험기간</t>
+        </is>
+      </c>
+      <c r="AN11" s="1" t="inlineStr">
+        <is>
+          <t>납입기간</t>
+        </is>
+      </c>
+      <c r="AQ11" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AR11" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AS11" s="1" t="inlineStr">
+        <is>
+          <t>매월</t>
+        </is>
+      </c>
+      <c r="AT11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BK11" s="1" t="inlineStr">
+        <is>
+          <t>은퇴자금</t>
+        </is>
+      </c>
+      <c r="BL11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BM11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN11" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="EF11" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EG11" s="1" t="inlineStr">
+        <is>
+          <t>정기사망보장특약(무)</t>
+        </is>
+      </c>
+      <c r="EH11" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EJ11" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="EK11" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EL11" s="1" t="inlineStr">
+        <is>
+          <t>재해보장특약(2종)(무)</t>
+        </is>
+      </c>
+      <c r="EM11" s="1" t="inlineStr">
+        <is>
+          <t>80세만기(주피)</t>
+        </is>
+      </c>
+      <c r="EO11" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="EP11" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EQ11" s="1" t="inlineStr">
+        <is>
+          <t>교통재해사망특약(무)</t>
+        </is>
+      </c>
+      <c r="ER11" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="ET11" s="1" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" customFormat="1" s="1">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>case8</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>New 늘곁에 종합간병보험</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>281441466</v>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>2종(표준형)</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
+          <t>400701</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>해당없음</t>
+        </is>
+      </c>
+      <c r="AI12" s="1" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="AJ12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" s="1" t="inlineStr">
+        <is>
+          <t>100세만기(주피)</t>
+        </is>
+      </c>
+      <c r="AL12" s="1" t="inlineStr">
+        <is>
+          <t>20년납</t>
+        </is>
+      </c>
+      <c r="AM12" s="1" t="inlineStr">
+        <is>
+          <t>월납</t>
+        </is>
+      </c>
+      <c r="EF12" s="1" t="inlineStr">
+        <is>
+          <t>주피</t>
+        </is>
+      </c>
+      <c r="EG12" s="1" t="inlineStr">
+        <is>
+          <t>간병인지원금특약(11-180일)(갱신형)(무)</t>
+        </is>
+      </c>
+      <c r="EH12" s="1" t="inlineStr">
+        <is>
+          <t>5년만기</t>
+        </is>
+      </c>
+      <c r="EI12" s="1" t="inlineStr">
+        <is>
+          <t>5년납</t>
+        </is>
+      </c>
+      <c r="EJ12" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="AF23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="AF24" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
-    <col width="28.83203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="34" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
     <col width="9" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="7.5" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="11" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="12.5" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="12" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
     <col width="11.6640625" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>자체 테스트</t>
+        </is>
+      </c>
+    </row>
     <row r="2" customFormat="1" s="1">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -1610,7 +7192,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>281131484</v>
+        <v>281364111</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="1">
@@ -1628,7 +7210,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>281205570</v>
+        <v>281392158</v>
       </c>
     </row>
     <row r="4" customFormat="1" s="1">
@@ -1646,7 +7228,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>281206774</v>
+        <v>281433427</v>
       </c>
     </row>
     <row r="5">
@@ -1666,30 +7248,124 @@
       <c r="E5" s="1" t="n">
         <v>281337974</v>
       </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>추가납입</t>
-        </is>
-      </c>
+      <c r="F5" s="1" t="n"/>
     </row>
     <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 암플러스 종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="n">
-        <v>281340253</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>인출</t>
-        </is>
-      </c>
+        <v>281423613</v>
+      </c>
+      <c r="F6" s="1" t="n"/>
     </row>
     <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>The스마트한 통합종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="n">
-        <v>281349069</v>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>연금선지급</t>
-        </is>
+        <v>281430382</v>
+      </c>
+      <c r="F7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>내게맞는 연금보험</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>281440931</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>New 늘곁에 종합간병보험</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2140046</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>채경훈</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>281441466</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" s="1"/>
+    <row r="11">
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>테스트 요청</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>암명품 종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2130038</v>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>김정한</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>281773934</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>간편가입 암플러스 종신보험(보증형)</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2190098</v>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>박주암</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>281773858</v>
       </c>
     </row>
   </sheetData>
